--- a/data/outputs/Market_Sell_Data.xlsx
+++ b/data/outputs/Market_Sell_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivana\Documents\Python Projects\Eve Production Auto\data\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{188A07A3-3198-4320-BEA0-F46318A62D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C97F4A-D34E-4CA1-8642-BB1948744A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8390" yWindow="5440" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="61">
   <si>
     <t>Item</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Tungsten Carbide</t>
   </si>
   <si>
+    <t>Misaba V - Moon 3 - Zoar and Sons Factory</t>
+  </si>
+  <si>
     <t>Terahertz Meta Materials</t>
   </si>
   <si>
@@ -199,7 +202,7 @@
     <t>Fullerides</t>
   </si>
   <si>
-    <t>Abudban VIII - Moon 6 - Six Kin Development Production Plant</t>
+    <t>Konora VI - Kaalakiota Corporation Factory</t>
   </si>
 </sst>
 </file>
@@ -565,7 +568,7 @@
   <dimension ref="A1:E147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -598,10 +601,10 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>108600</v>
+        <v>102900</v>
       </c>
       <c r="E2">
-        <v>2000</v>
+        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -615,10 +618,10 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>159900</v>
+        <v>159800</v>
       </c>
       <c r="E3">
-        <v>6567</v>
+        <v>989</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -635,7 +638,7 @@
         <v>104900</v>
       </c>
       <c r="E4">
-        <v>723</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -669,7 +672,7 @@
         <v>27450</v>
       </c>
       <c r="E6">
-        <v>88432</v>
+        <v>33356</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -700,10 +703,10 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>36480</v>
+        <v>36000</v>
       </c>
       <c r="E8">
-        <v>1945</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -717,10 +720,10 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>37190</v>
+        <v>35990</v>
       </c>
       <c r="E9">
-        <v>2916</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -734,10 +737,10 @@
         <v>11</v>
       </c>
       <c r="D10">
-        <v>43990</v>
+        <v>43950</v>
       </c>
       <c r="E10">
-        <v>4765</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -751,10 +754,10 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>47590</v>
+        <v>46900</v>
       </c>
       <c r="E11">
-        <v>69458</v>
+        <v>13422</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -768,10 +771,10 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>55310</v>
+        <v>55340</v>
       </c>
       <c r="E12">
-        <v>10000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -785,10 +788,10 @@
         <v>7</v>
       </c>
       <c r="D13">
-        <v>28260</v>
+        <v>23240</v>
       </c>
       <c r="E13">
-        <v>5000</v>
+        <v>10323</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -810,19 +813,19 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D15">
-        <v>48410</v>
+        <v>22910</v>
       </c>
       <c r="E15">
-        <v>11376</v>
+        <v>13596</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -830,16 +833,16 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D16">
-        <v>51960</v>
+        <v>48640</v>
       </c>
       <c r="E16">
-        <v>7000</v>
+        <v>8732</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -847,33 +850,33 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>64340</v>
+        <v>97770</v>
       </c>
       <c r="E17">
-        <v>4001</v>
+        <v>8781</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D18">
-        <v>11640</v>
+        <v>64320</v>
       </c>
       <c r="E18">
-        <v>94211</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -881,16 +884,16 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19">
-        <v>13500</v>
+        <v>12460</v>
       </c>
       <c r="E19">
-        <v>178750</v>
+        <v>31090</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -898,16 +901,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>15740</v>
+        <v>12870</v>
       </c>
       <c r="E20">
-        <v>24980</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -915,33 +918,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>12000</v>
+        <v>15700</v>
       </c>
       <c r="E21">
-        <v>70000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>157.69999999999999</v>
+        <v>12000</v>
       </c>
       <c r="E22">
-        <v>10284493</v>
+        <v>29187</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -949,16 +952,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D23">
-        <v>198.8</v>
+        <v>163</v>
       </c>
       <c r="E23">
-        <v>1152798</v>
+        <v>5767133</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -966,16 +969,16 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="E24">
-        <v>1104976</v>
+        <v>5593651</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -983,67 +986,67 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E25">
-        <v>1968500</v>
+        <v>1382365</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D26">
-        <v>14050</v>
+        <v>169</v>
       </c>
       <c r="E26">
-        <v>140590</v>
+        <v>1911900</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>39480</v>
+        <v>13400</v>
       </c>
       <c r="E27">
-        <v>45500</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>17950</v>
+        <v>39480</v>
       </c>
       <c r="E28">
-        <v>39803</v>
+        <v>45500</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1051,135 +1054,135 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D29">
-        <v>82300</v>
+        <v>17390</v>
       </c>
       <c r="E29">
-        <v>717</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>89980</v>
+        <v>77430</v>
       </c>
       <c r="E30">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D31">
-        <v>112000</v>
+        <v>80000</v>
       </c>
       <c r="E31">
-        <v>2540</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D32">
-        <v>74000</v>
+        <v>112000</v>
       </c>
       <c r="E32">
-        <v>776</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>83050</v>
+        <v>74000</v>
       </c>
       <c r="E33">
-        <v>272</v>
+        <v>776</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
         <v>26</v>
       </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
       <c r="D34">
-        <v>41540</v>
+        <v>83050</v>
       </c>
       <c r="E34">
-        <v>4716</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D35">
-        <v>37820</v>
+        <v>40860</v>
       </c>
       <c r="E35">
-        <v>4209</v>
+        <v>7659</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D36">
-        <v>48460</v>
+        <v>37860</v>
       </c>
       <c r="E36">
-        <v>3229</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -1187,30 +1190,30 @@
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D37">
-        <v>28150</v>
+        <v>44940</v>
       </c>
       <c r="E37">
-        <v>3591</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D38">
-        <v>38350</v>
+        <v>32820</v>
       </c>
       <c r="E38">
         <v>5000</v>
@@ -1221,50 +1224,50 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D39">
-        <v>22740</v>
+        <v>29000</v>
       </c>
       <c r="E39">
-        <v>8940</v>
+        <v>8224</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D40">
-        <v>22820</v>
+        <v>20750</v>
       </c>
       <c r="E40">
-        <v>4960</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D41">
-        <v>35000</v>
+        <v>35960</v>
       </c>
       <c r="E41">
-        <v>8036</v>
+        <v>17840</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -1272,67 +1275,67 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D42">
-        <v>34350</v>
+        <v>34960</v>
       </c>
       <c r="E42">
-        <v>5309</v>
+        <v>10451</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D43">
-        <v>64810</v>
+        <v>34400</v>
       </c>
       <c r="E43">
-        <v>5000</v>
+        <v>9161</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D44">
-        <v>88590</v>
+        <v>64810</v>
       </c>
       <c r="E44">
-        <v>10000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D45">
-        <v>37000</v>
+        <v>86990</v>
       </c>
       <c r="E45">
-        <v>4247</v>
+        <v>9854</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -1340,33 +1343,33 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D46">
-        <v>46420</v>
+        <v>37000</v>
       </c>
       <c r="E46">
-        <v>50401</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D47">
-        <v>67940</v>
+        <v>45680</v>
       </c>
       <c r="E47">
-        <v>10000</v>
+        <v>17556</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -1374,47 +1377,47 @@
         <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D48">
-        <v>12450</v>
+        <v>67850</v>
       </c>
       <c r="E48">
-        <v>26030</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D49">
-        <v>12800</v>
+        <v>11690</v>
       </c>
       <c r="E49">
-        <v>20000</v>
+        <v>77777</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D50">
-        <v>18000</v>
+        <v>12800</v>
       </c>
       <c r="E50">
         <v>20000</v>
@@ -1425,50 +1428,50 @@
         <v>32</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D51">
-        <v>154</v>
+        <v>18000</v>
       </c>
       <c r="E51">
-        <v>13314582</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D52">
-        <v>161</v>
+        <v>141.80000000000001</v>
       </c>
       <c r="E52">
-        <v>1062492</v>
+        <v>15806555</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D53">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E53">
-        <v>3723521</v>
+        <v>1984364</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -1476,33 +1479,33 @@
         <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D54">
-        <v>12990</v>
+        <v>184.9</v>
       </c>
       <c r="E54">
-        <v>64087</v>
+        <v>1194073</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D55">
-        <v>15990</v>
+        <v>13390</v>
       </c>
       <c r="E55">
-        <v>35393</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -1510,33 +1513,33 @@
         <v>34</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D56">
-        <v>42510</v>
+        <v>15990</v>
       </c>
       <c r="E56">
-        <v>7765</v>
+        <v>35393</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D57">
-        <v>52770</v>
+        <v>40760</v>
       </c>
       <c r="E57">
-        <v>3882</v>
+        <v>6239</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -1544,33 +1547,33 @@
         <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D58">
-        <v>43240</v>
+        <v>51950</v>
       </c>
       <c r="E58">
-        <v>43649</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D59">
-        <v>74920</v>
+        <v>48950</v>
       </c>
       <c r="E59">
-        <v>10000</v>
+        <v>29800</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -1578,16 +1581,16 @@
         <v>36</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D60">
-        <v>9978</v>
+        <v>51000</v>
       </c>
       <c r="E60">
-        <v>30004</v>
+        <v>27040</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -1595,67 +1598,67 @@
         <v>36</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D61">
-        <v>29990</v>
+        <v>74930</v>
       </c>
       <c r="E61">
-        <v>36933</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D62">
-        <v>11390</v>
+        <v>10140</v>
       </c>
       <c r="E62">
-        <v>51349</v>
+        <v>99300</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D63">
-        <v>11000</v>
+        <v>9500</v>
       </c>
       <c r="E63">
-        <v>28500</v>
+        <v>75064</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D64">
-        <v>15000</v>
+        <v>11370</v>
       </c>
       <c r="E64">
-        <v>62500</v>
+        <v>26696</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -1663,16 +1666,16 @@
         <v>37</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D65">
-        <v>21730</v>
+        <v>11000</v>
       </c>
       <c r="E65">
-        <v>8916</v>
+        <v>28500</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -1680,16 +1683,16 @@
         <v>37</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D66">
-        <v>23990</v>
+        <v>15000</v>
       </c>
       <c r="E66">
-        <v>6048</v>
+        <v>62500</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
@@ -1703,10 +1706,10 @@
         <v>7</v>
       </c>
       <c r="D67">
-        <v>45600</v>
+        <v>21720</v>
       </c>
       <c r="E67">
-        <v>1633</v>
+        <v>4167</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -1720,27 +1723,27 @@
         <v>9</v>
       </c>
       <c r="D68">
-        <v>69970</v>
+        <v>21990</v>
       </c>
       <c r="E68">
-        <v>1916</v>
+        <v>5548</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D69">
-        <v>75100</v>
+        <v>44880</v>
       </c>
       <c r="E69">
-        <v>10000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -1748,16 +1751,16 @@
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D70">
-        <v>101300</v>
+        <v>37000</v>
       </c>
       <c r="E70">
-        <v>1940</v>
+        <v>6064</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -1765,67 +1768,67 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D71">
-        <v>109600</v>
+        <v>74920</v>
       </c>
       <c r="E71">
-        <v>495</v>
+        <v>5759</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D72">
-        <v>107000</v>
+        <v>89980</v>
       </c>
       <c r="E72">
-        <v>1966</v>
+        <v>396</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D73">
         <v>99000</v>
       </c>
       <c r="E73">
-        <v>217</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D74">
-        <v>82950</v>
+        <v>106900</v>
       </c>
       <c r="E74">
-        <v>664</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -1833,16 +1836,16 @@
         <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D75">
-        <v>32530</v>
+        <v>99000</v>
       </c>
       <c r="E75">
-        <v>13628</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -1850,33 +1853,33 @@
         <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D76">
-        <v>75980</v>
+        <v>82950</v>
       </c>
       <c r="E76">
-        <v>4916</v>
+        <v>664</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D77">
-        <v>53250</v>
+        <v>32420</v>
       </c>
       <c r="E77">
-        <v>4000</v>
+        <v>5496</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -1884,16 +1887,16 @@
         <v>41</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D78">
-        <v>135</v>
+        <v>40000</v>
       </c>
       <c r="E78">
-        <v>6853780</v>
+        <v>8043</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
@@ -1901,67 +1904,67 @@
         <v>41</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D79">
-        <v>249.5</v>
+        <v>53150</v>
       </c>
       <c r="E79">
-        <v>836368</v>
+        <v>11308</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D80">
-        <v>158</v>
+        <v>134.80000000000001</v>
       </c>
       <c r="E80">
-        <v>1204310</v>
+        <v>5934871</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D81">
-        <v>164.9</v>
+        <v>149</v>
       </c>
       <c r="E81">
-        <v>4186300</v>
+        <v>2627913</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B82" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D82">
-        <v>249</v>
+        <v>153.4</v>
       </c>
       <c r="E82">
-        <v>6065780</v>
+        <v>4523071</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
@@ -1969,16 +1972,16 @@
         <v>42</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D83">
-        <v>13900</v>
+        <v>164.9</v>
       </c>
       <c r="E83">
-        <v>61079</v>
+        <v>3926287</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
@@ -1986,50 +1989,50 @@
         <v>42</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D84">
-        <v>14410</v>
+        <v>249</v>
       </c>
       <c r="E84">
-        <v>97711</v>
+        <v>4665780</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85">
-        <v>60015171</v>
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>7</v>
       </c>
       <c r="D85">
-        <v>14420</v>
+        <v>14120</v>
       </c>
       <c r="E85">
-        <v>76970</v>
+        <v>53950</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D86">
         <v>14410</v>
       </c>
       <c r="E86">
-        <v>89900</v>
+        <v>97711</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
@@ -2037,16 +2040,16 @@
         <v>43</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D87">
-        <v>11220</v>
+        <v>15990</v>
       </c>
       <c r="E87">
-        <v>29683</v>
+        <v>41510</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
@@ -2054,16 +2057,16 @@
         <v>43</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="C88">
+        <v>60015171</v>
       </c>
       <c r="D88">
-        <v>14950</v>
+        <v>14420</v>
       </c>
       <c r="E88">
-        <v>25000</v>
+        <v>75970</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
@@ -2071,16 +2074,16 @@
         <v>43</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D89">
-        <v>21500</v>
+        <v>14410</v>
       </c>
       <c r="E89">
-        <v>31087</v>
+        <v>88050</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
@@ -2094,10 +2097,10 @@
         <v>7</v>
       </c>
       <c r="D90">
-        <v>110600</v>
+        <v>12460</v>
       </c>
       <c r="E90">
-        <v>2100</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
@@ -2111,10 +2114,10 @@
         <v>9</v>
       </c>
       <c r="D91">
-        <v>113400</v>
+        <v>14950</v>
       </c>
       <c r="E91">
-        <v>1000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
@@ -2128,10 +2131,10 @@
         <v>11</v>
       </c>
       <c r="D92">
-        <v>139900</v>
+        <v>21000</v>
       </c>
       <c r="E92">
-        <v>829</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
@@ -2145,10 +2148,10 @@
         <v>7</v>
       </c>
       <c r="D93">
-        <v>36240</v>
+        <v>101300</v>
       </c>
       <c r="E93">
-        <v>5000</v>
+        <v>806</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
@@ -2162,10 +2165,10 @@
         <v>9</v>
       </c>
       <c r="D94">
-        <v>33130</v>
+        <v>109600</v>
       </c>
       <c r="E94">
-        <v>4357</v>
+        <v>987</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
@@ -2179,10 +2182,10 @@
         <v>11</v>
       </c>
       <c r="D95">
-        <v>83750</v>
+        <v>136900</v>
       </c>
       <c r="E95">
-        <v>10000</v>
+        <v>350</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
@@ -2196,10 +2199,10 @@
         <v>7</v>
       </c>
       <c r="D96">
-        <v>27410</v>
+        <v>36190</v>
       </c>
       <c r="E96">
-        <v>26933</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
@@ -2213,10 +2216,10 @@
         <v>9</v>
       </c>
       <c r="D97">
-        <v>28960</v>
+        <v>33130</v>
       </c>
       <c r="E97">
-        <v>6881</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
@@ -2230,10 +2233,10 @@
         <v>11</v>
       </c>
       <c r="D98">
-        <v>29000</v>
+        <v>82890</v>
       </c>
       <c r="E98">
-        <v>29787</v>
+        <v>8932</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
@@ -2247,10 +2250,10 @@
         <v>7</v>
       </c>
       <c r="D99">
-        <v>36550</v>
+        <v>25700</v>
       </c>
       <c r="E99">
-        <v>5778</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
@@ -2264,10 +2267,10 @@
         <v>9</v>
       </c>
       <c r="D100">
-        <v>39880</v>
+        <v>25950</v>
       </c>
       <c r="E100">
-        <v>4710</v>
+        <v>6279</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
@@ -2281,10 +2284,10 @@
         <v>11</v>
       </c>
       <c r="D101">
-        <v>61380</v>
+        <v>27000</v>
       </c>
       <c r="E101">
-        <v>10000</v>
+        <v>28252</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
@@ -2298,10 +2301,10 @@
         <v>7</v>
       </c>
       <c r="D102">
-        <v>46600</v>
+        <v>38200</v>
       </c>
       <c r="E102">
-        <v>71414</v>
+        <v>19377</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
@@ -2315,10 +2318,10 @@
         <v>9</v>
       </c>
       <c r="D103">
-        <v>90000</v>
+        <v>49230</v>
       </c>
       <c r="E103">
-        <v>13162</v>
+        <v>4859</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
@@ -2332,27 +2335,27 @@
         <v>11</v>
       </c>
       <c r="D104">
-        <v>66980</v>
+        <v>61340</v>
       </c>
       <c r="E104">
-        <v>10000</v>
+        <v>9950</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B105" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D105">
-        <v>75000</v>
+        <v>44390</v>
       </c>
       <c r="E105">
-        <v>31219</v>
+        <v>16811</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
@@ -2360,16 +2363,16 @@
         <v>49</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D106">
-        <v>37000</v>
+        <v>90000</v>
       </c>
       <c r="E106">
-        <v>9858</v>
+        <v>10875</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
@@ -2377,33 +2380,33 @@
         <v>49</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D107">
-        <v>40970</v>
+        <v>75000</v>
       </c>
       <c r="E107">
-        <v>4656</v>
+        <v>31056</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D108">
-        <v>62280</v>
+        <v>36880</v>
       </c>
       <c r="E108">
-        <v>10000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
@@ -2411,16 +2414,16 @@
         <v>50</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D109">
-        <v>160</v>
+        <v>35000</v>
       </c>
       <c r="E109">
-        <v>2195665</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
@@ -2428,67 +2431,67 @@
         <v>50</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D110">
-        <v>233.4</v>
+        <v>61730</v>
       </c>
       <c r="E110">
-        <v>907877</v>
+        <v>8775</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D111">
-        <v>197.5</v>
+        <v>157.4</v>
       </c>
       <c r="E111">
-        <v>2673193</v>
+        <v>25029047</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D112">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="E112">
-        <v>4402256</v>
+        <v>10660474</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B113" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D113">
-        <v>300</v>
+        <v>197.4</v>
       </c>
       <c r="E113">
-        <v>750000</v>
+        <v>794719</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
@@ -2496,16 +2499,16 @@
         <v>51</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D114">
-        <v>11890</v>
+        <v>300</v>
       </c>
       <c r="E114">
-        <v>92500</v>
+        <v>4402256</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
@@ -2513,33 +2516,33 @@
         <v>51</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D115">
-        <v>16000</v>
+        <v>300</v>
       </c>
       <c r="E115">
-        <v>30000</v>
+        <v>2354192</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D116">
-        <v>25400</v>
+        <v>11610</v>
       </c>
       <c r="E116">
-        <v>210317</v>
+        <v>51433</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
@@ -2547,50 +2550,50 @@
         <v>52</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D117">
-        <v>46800</v>
+        <v>18300</v>
       </c>
       <c r="E117">
-        <v>117346</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D118">
-        <v>55990</v>
+        <v>41750</v>
       </c>
       <c r="E118">
-        <v>10000</v>
+        <v>11627</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D119">
-        <v>49250</v>
+        <v>55000</v>
       </c>
       <c r="E119">
-        <v>1194</v>
+        <v>29288</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
@@ -2598,84 +2601,84 @@
         <v>53</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C120" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D120">
-        <v>1394</v>
+        <v>48500</v>
       </c>
       <c r="E120">
-        <v>499460</v>
+        <v>400</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D121">
-        <v>2179</v>
+        <v>1401</v>
       </c>
       <c r="E121">
-        <v>100000</v>
+        <v>218436</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D122">
-        <v>2065</v>
+        <v>1995</v>
       </c>
       <c r="E122">
-        <v>69093</v>
+        <v>89100</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C123" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D123">
-        <v>1751</v>
+        <v>1687</v>
       </c>
       <c r="E123">
-        <v>119900</v>
+        <v>159995</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B124" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D124">
-        <v>2500</v>
+        <v>1751</v>
       </c>
       <c r="E124">
-        <v>95082</v>
+        <v>110120</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
@@ -2683,67 +2686,67 @@
         <v>54</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C125" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D125">
-        <v>23020</v>
+        <v>2500</v>
       </c>
       <c r="E125">
-        <v>110371</v>
+        <v>79073</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D126">
-        <v>31810</v>
+        <v>22460</v>
       </c>
       <c r="E126">
-        <v>6237</v>
+        <v>17522</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D127">
-        <v>30940</v>
+        <v>25000</v>
       </c>
       <c r="E127">
-        <v>5602</v>
+        <v>13705</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C128" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D128">
-        <v>26000</v>
+        <v>33290</v>
       </c>
       <c r="E128">
-        <v>2600</v>
+        <v>10343</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
@@ -2751,89 +2754,89 @@
         <v>55</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C129" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D129">
-        <v>323</v>
+        <v>26500</v>
       </c>
       <c r="E129">
-        <v>4920587</v>
+        <v>45691</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D130">
-        <v>384.9</v>
+        <v>314.5</v>
       </c>
       <c r="E130">
-        <v>1150638</v>
+        <v>451050</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D131">
-        <v>400</v>
+        <v>384.7</v>
       </c>
       <c r="E131">
-        <v>1205977</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C132" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D132">
         <v>400</v>
       </c>
       <c r="E132">
-        <v>472000</v>
+        <v>639090</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B133" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C133" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D133">
-        <v>649.9</v>
+        <v>400</v>
       </c>
       <c r="E133">
-        <v>608459</v>
+        <v>472000</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
@@ -2842,15 +2845,15 @@
         <v>7</v>
       </c>
       <c r="D134">
-        <v>3275</v>
+        <v>2998</v>
       </c>
       <c r="E134">
-        <v>25199</v>
+        <v>54533</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B135" t="s">
         <v>8</v>
@@ -2859,15 +2862,15 @@
         <v>9</v>
       </c>
       <c r="D135">
-        <v>3899</v>
+        <v>3500</v>
       </c>
       <c r="E135">
-        <v>288114</v>
+        <v>135934</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B136" t="s">
         <v>10</v>
@@ -2876,15 +2879,15 @@
         <v>11</v>
       </c>
       <c r="D136">
-        <v>3895</v>
+        <v>3680</v>
       </c>
       <c r="E136">
-        <v>25946</v>
+        <v>463807</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B137" t="s">
         <v>12</v>
@@ -2893,7 +2896,7 @@
         <v>60015171</v>
       </c>
       <c r="D137">
-        <v>3999</v>
+        <v>3899</v>
       </c>
       <c r="E137">
         <v>499984</v>
@@ -2901,24 +2904,24 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B138" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C138" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D138">
         <v>3999</v>
       </c>
       <c r="E138">
-        <v>942644</v>
+        <v>932822</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
@@ -2927,15 +2930,15 @@
         <v>7</v>
       </c>
       <c r="D139">
-        <v>6080</v>
+        <v>6395</v>
       </c>
       <c r="E139">
-        <v>103287</v>
+        <v>40193</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
@@ -2944,15 +2947,15 @@
         <v>9</v>
       </c>
       <c r="D140">
-        <v>7385</v>
+        <v>7000</v>
       </c>
       <c r="E140">
-        <v>49778</v>
+        <v>184706</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B141" t="s">
         <v>10</v>
@@ -2961,15 +2964,15 @@
         <v>11</v>
       </c>
       <c r="D141">
-        <v>8700</v>
+        <v>8500</v>
       </c>
       <c r="E141">
-        <v>20000</v>
+        <v>19194</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B142" t="s">
         <v>12</v>
@@ -2981,12 +2984,12 @@
         <v>8300</v>
       </c>
       <c r="E142">
-        <v>16500</v>
+        <v>14596</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
@@ -2995,15 +2998,15 @@
         <v>7</v>
       </c>
       <c r="D143">
-        <v>657.7</v>
+        <v>749</v>
       </c>
       <c r="E143">
-        <v>212660</v>
+        <v>250394</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B144" t="s">
         <v>8</v>
@@ -3012,15 +3015,15 @@
         <v>9</v>
       </c>
       <c r="D144">
-        <v>675</v>
+        <v>659.8</v>
       </c>
       <c r="E144">
-        <v>29501</v>
+        <v>126863</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B145" t="s">
         <v>10</v>
@@ -3032,41 +3035,41 @@
         <v>750</v>
       </c>
       <c r="E145">
-        <v>938437</v>
+        <v>743562</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B146" t="s">
         <v>12</v>
       </c>
       <c r="C146" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D146">
-        <v>599.9</v>
+        <v>650</v>
       </c>
       <c r="E146">
-        <v>79066</v>
+        <v>37276</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B147" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C147" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="D147">
-        <v>640</v>
+        <v>1673</v>
       </c>
       <c r="E147">
-        <v>354000</v>
+        <v>170634</v>
       </c>
     </row>
   </sheetData>

--- a/data/outputs/Market_Sell_Data.xlsx
+++ b/data/outputs/Market_Sell_Data.xlsx
@@ -206,7 +206,7 @@
     <t>Certh Finley</t>
   </si>
   <si>
-    <t>06/25/2023, 15:43:11</t>
+    <t>06/25/2023, 16:11:45</t>
   </si>
 </sst>
 </file>
@@ -839,7 +839,7 @@
         <v>66740</v>
       </c>
       <c r="E16">
-        <v>5231</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -887,10 +887,10 @@
         <v>53</v>
       </c>
       <c r="D19">
-        <v>11960</v>
+        <v>11950</v>
       </c>
       <c r="E19">
-        <v>34700</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -955,10 +955,10 @@
         <v>53</v>
       </c>
       <c r="D23">
-        <v>222.4</v>
+        <v>222</v>
       </c>
       <c r="E23">
-        <v>5000000</v>
+        <v>17080280</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1145,7 +1145,7 @@
         <v>42410</v>
       </c>
       <c r="E34">
-        <v>2820</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1417,7 +1417,7 @@
         <v>169.3</v>
       </c>
       <c r="E50">
-        <v>5818403</v>
+        <v>5661830</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1448,10 +1448,10 @@
         <v>55</v>
       </c>
       <c r="D52">
-        <v>188.8</v>
+        <v>188</v>
       </c>
       <c r="E52">
-        <v>3760000</v>
+        <v>2360000</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1502,7 +1502,7 @@
         <v>16690</v>
       </c>
       <c r="E55">
-        <v>103138</v>
+        <v>100134</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1856,10 +1856,10 @@
         <v>53</v>
       </c>
       <c r="D76">
-        <v>111.5</v>
+        <v>111.7</v>
       </c>
       <c r="E76">
-        <v>1000000</v>
+        <v>2566568</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2009,10 +2009,10 @@
         <v>53</v>
       </c>
       <c r="D85">
-        <v>11450</v>
+        <v>11470</v>
       </c>
       <c r="E85">
-        <v>25204</v>
+        <v>28315</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2046,7 +2046,7 @@
         <v>99990</v>
       </c>
       <c r="E87">
-        <v>10525</v>
+        <v>10462</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2148,7 +2148,7 @@
         <v>20990</v>
       </c>
       <c r="E93">
-        <v>6521</v>
+        <v>5921</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2199,7 +2199,7 @@
         <v>42270</v>
       </c>
       <c r="E96">
-        <v>40637</v>
+        <v>40037</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2250,7 +2250,7 @@
         <v>47990</v>
       </c>
       <c r="E99">
-        <v>29427</v>
+        <v>24639</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2301,7 +2301,7 @@
         <v>39580</v>
       </c>
       <c r="E102">
-        <v>2902</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2349,10 +2349,10 @@
         <v>53</v>
       </c>
       <c r="D105">
-        <v>197.8</v>
+        <v>197.9</v>
       </c>
       <c r="E105">
-        <v>1326000</v>
+        <v>2539486</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2437,7 +2437,7 @@
         <v>13470</v>
       </c>
       <c r="E110">
-        <v>43961</v>
+        <v>42284</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2485,10 +2485,10 @@
         <v>53</v>
       </c>
       <c r="D113">
-        <v>80950</v>
+        <v>80930</v>
       </c>
       <c r="E113">
-        <v>50000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2553,10 +2553,10 @@
         <v>53</v>
       </c>
       <c r="D117">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="E117">
-        <v>293623</v>
+        <v>459903</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2638,10 +2638,10 @@
         <v>53</v>
       </c>
       <c r="D122">
-        <v>28420</v>
+        <v>28410</v>
       </c>
       <c r="E122">
-        <v>300000</v>
+        <v>14970</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2723,10 +2723,10 @@
         <v>53</v>
       </c>
       <c r="D127">
-        <v>387.9</v>
+        <v>388</v>
       </c>
       <c r="E127">
-        <v>290000</v>
+        <v>1976423</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2794,7 +2794,7 @@
         <v>2988</v>
       </c>
       <c r="E131">
-        <v>197037</v>
+        <v>132440</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2879,7 +2879,7 @@
         <v>6832</v>
       </c>
       <c r="E136">
-        <v>19717</v>
+        <v>17617</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2944,10 +2944,10 @@
         <v>53</v>
       </c>
       <c r="D140">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E140">
-        <v>376086</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2978,10 +2978,10 @@
         <v>55</v>
       </c>
       <c r="D142">
-        <v>1199</v>
+        <v>1100</v>
       </c>
       <c r="E142">
-        <v>48297</v>
+        <v>374458</v>
       </c>
     </row>
     <row r="143" spans="1:5">

--- a/data/outputs/Market_Sell_Data.xlsx
+++ b/data/outputs/Market_Sell_Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="64">
   <si>
     <t>Item</t>
   </si>
@@ -206,7 +206,7 @@
     <t>Certh Finley</t>
   </si>
   <si>
-    <t>06/25/2023, 16:11:45</t>
+    <t>06/26/2023, 13:41:20</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,7 +601,7 @@
         <v>133400</v>
       </c>
       <c r="E2">
-        <v>5136</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -632,10 +632,10 @@
         <v>55</v>
       </c>
       <c r="D4">
-        <v>134400</v>
+        <v>142500</v>
       </c>
       <c r="E4">
-        <v>216</v>
+        <v>6495</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -683,10 +683,10 @@
         <v>53</v>
       </c>
       <c r="D7">
-        <v>40070</v>
+        <v>39850</v>
       </c>
       <c r="E7">
-        <v>3300</v>
+        <v>54546</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -703,7 +703,7 @@
         <v>41870</v>
       </c>
       <c r="E8">
-        <v>10000</v>
+        <v>9392</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -717,10 +717,10 @@
         <v>53</v>
       </c>
       <c r="D9">
-        <v>39700</v>
+        <v>34480</v>
       </c>
       <c r="E9">
-        <v>3041</v>
+        <v>9571</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -754,7 +754,7 @@
         <v>41970</v>
       </c>
       <c r="E11">
-        <v>5000</v>
+        <v>4644</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -771,7 +771,7 @@
         <v>58740</v>
       </c>
       <c r="E12">
-        <v>25418</v>
+        <v>24689</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -788,7 +788,7 @@
         <v>26640</v>
       </c>
       <c r="E13">
-        <v>12139</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -836,10 +836,10 @@
         <v>53</v>
       </c>
       <c r="D16">
-        <v>66740</v>
+        <v>65310</v>
       </c>
       <c r="E16">
-        <v>5171</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -887,10 +887,10 @@
         <v>53</v>
       </c>
       <c r="D19">
-        <v>11950</v>
+        <v>11490</v>
       </c>
       <c r="E19">
-        <v>24000</v>
+        <v>21250</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -907,7 +907,7 @@
         <v>27000</v>
       </c>
       <c r="E20">
-        <v>25950</v>
+        <v>25650</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -921,10 +921,10 @@
         <v>55</v>
       </c>
       <c r="D21">
-        <v>24000</v>
+        <v>23320</v>
       </c>
       <c r="E21">
-        <v>126000</v>
+        <v>74245</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -955,10 +955,10 @@
         <v>53</v>
       </c>
       <c r="D23">
-        <v>222</v>
+        <v>218.5</v>
       </c>
       <c r="E23">
-        <v>17080280</v>
+        <v>4233973</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1040,10 +1040,10 @@
         <v>53</v>
       </c>
       <c r="D28">
-        <v>17320</v>
+        <v>17100</v>
       </c>
       <c r="E28">
-        <v>55470</v>
+        <v>214722</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1074,10 +1074,10 @@
         <v>55</v>
       </c>
       <c r="D30">
-        <v>22720</v>
+        <v>22670</v>
       </c>
       <c r="E30">
-        <v>64100</v>
+        <v>59100</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1094,7 +1094,7 @@
         <v>179600</v>
       </c>
       <c r="E31">
-        <v>10191</v>
+        <v>9782</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1125,10 +1125,10 @@
         <v>55</v>
       </c>
       <c r="D33">
-        <v>104400</v>
+        <v>104500</v>
       </c>
       <c r="E33">
-        <v>651</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1142,10 +1142,10 @@
         <v>53</v>
       </c>
       <c r="D34">
-        <v>42410</v>
+        <v>42450</v>
       </c>
       <c r="E34">
-        <v>2805</v>
+        <v>19999</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1176,10 +1176,10 @@
         <v>55</v>
       </c>
       <c r="D36">
-        <v>51820</v>
+        <v>51790</v>
       </c>
       <c r="E36">
-        <v>2050</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1193,10 +1193,10 @@
         <v>53</v>
       </c>
       <c r="D37">
-        <v>37470</v>
+        <v>37220</v>
       </c>
       <c r="E37">
-        <v>71423</v>
+        <v>70923</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1230,7 +1230,7 @@
         <v>38950</v>
       </c>
       <c r="E39">
-        <v>5000</v>
+        <v>6679</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1247,7 +1247,7 @@
         <v>19720</v>
       </c>
       <c r="E40">
-        <v>107746</v>
+        <v>101971</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1332,7 +1332,7 @@
         <v>55670</v>
       </c>
       <c r="E45">
-        <v>43836</v>
+        <v>34609</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1363,10 +1363,10 @@
         <v>53</v>
       </c>
       <c r="D47">
-        <v>11480</v>
+        <v>11430</v>
       </c>
       <c r="E47">
-        <v>22787</v>
+        <v>21725</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1397,10 +1397,10 @@
         <v>55</v>
       </c>
       <c r="D49">
-        <v>27000</v>
+        <v>26870</v>
       </c>
       <c r="E49">
-        <v>68856</v>
+        <v>163730</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1414,10 +1414,10 @@
         <v>53</v>
       </c>
       <c r="D50">
-        <v>169.3</v>
+        <v>169.5</v>
       </c>
       <c r="E50">
-        <v>5661830</v>
+        <v>3683907</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1434,7 +1434,7 @@
         <v>213.6</v>
       </c>
       <c r="E51">
-        <v>1700805</v>
+        <v>1660805</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1448,10 +1448,10 @@
         <v>55</v>
       </c>
       <c r="D52">
-        <v>188</v>
+        <v>209.8</v>
       </c>
       <c r="E52">
-        <v>2360000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1499,10 +1499,10 @@
         <v>53</v>
       </c>
       <c r="D55">
-        <v>16690</v>
+        <v>16550</v>
       </c>
       <c r="E55">
-        <v>100134</v>
+        <v>197452</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1536,7 +1536,7 @@
         <v>40430</v>
       </c>
       <c r="E57">
-        <v>12552</v>
+        <v>5534</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1570,7 +1570,7 @@
         <v>48380</v>
       </c>
       <c r="E59">
-        <v>3316</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1584,10 +1584,10 @@
         <v>53</v>
       </c>
       <c r="D60">
-        <v>49340</v>
+        <v>45000</v>
       </c>
       <c r="E60">
-        <v>10145</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1618,10 +1618,10 @@
         <v>53</v>
       </c>
       <c r="D62">
-        <v>10780</v>
+        <v>10450</v>
       </c>
       <c r="E62">
-        <v>49127</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1638,7 +1638,7 @@
         <v>19200</v>
       </c>
       <c r="E63">
-        <v>62500</v>
+        <v>61145</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1652,10 +1652,10 @@
         <v>55</v>
       </c>
       <c r="D64">
-        <v>18000</v>
+        <v>17960</v>
       </c>
       <c r="E64">
-        <v>62500</v>
+        <v>88271</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1669,10 +1669,10 @@
         <v>57</v>
       </c>
       <c r="D65">
-        <v>19200</v>
+        <v>19180</v>
       </c>
       <c r="E65">
-        <v>62500</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1689,7 +1689,7 @@
         <v>19280</v>
       </c>
       <c r="E66">
-        <v>12863</v>
+        <v>9004</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1720,10 +1720,10 @@
         <v>53</v>
       </c>
       <c r="D68">
-        <v>38800</v>
+        <v>38780</v>
       </c>
       <c r="E68">
-        <v>3007</v>
+        <v>22365</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1737,10 +1737,10 @@
         <v>54</v>
       </c>
       <c r="D69">
-        <v>42900</v>
+        <v>41960</v>
       </c>
       <c r="E69">
-        <v>4477</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1754,7 +1754,7 @@
         <v>55</v>
       </c>
       <c r="D70">
-        <v>49410</v>
+        <v>49240</v>
       </c>
       <c r="E70">
         <v>6917</v>
@@ -1771,10 +1771,10 @@
         <v>53</v>
       </c>
       <c r="D71">
-        <v>98900</v>
+        <v>98910</v>
       </c>
       <c r="E71">
-        <v>727</v>
+        <v>6127</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1825,7 +1825,7 @@
         <v>34470</v>
       </c>
       <c r="E74">
-        <v>23864</v>
+        <v>14243</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1856,10 +1856,10 @@
         <v>53</v>
       </c>
       <c r="D76">
-        <v>111.7</v>
+        <v>111</v>
       </c>
       <c r="E76">
-        <v>2566568</v>
+        <v>11520063</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1890,10 +1890,10 @@
         <v>55</v>
       </c>
       <c r="D78">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E78">
-        <v>1340337</v>
+        <v>16118516</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1927,7 +1927,7 @@
         <v>270</v>
       </c>
       <c r="E80">
-        <v>1108906</v>
+        <v>1105906</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1941,10 +1941,10 @@
         <v>53</v>
       </c>
       <c r="D81">
-        <v>13090</v>
+        <v>12750</v>
       </c>
       <c r="E81">
-        <v>51000</v>
+        <v>151622</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1978,7 +1978,7 @@
         <v>14850</v>
       </c>
       <c r="E83">
-        <v>68777</v>
+        <v>67877</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2009,10 +2009,10 @@
         <v>53</v>
       </c>
       <c r="D85">
-        <v>11470</v>
+        <v>11440</v>
       </c>
       <c r="E85">
-        <v>28315</v>
+        <v>47002</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2026,10 +2026,10 @@
         <v>55</v>
       </c>
       <c r="D86">
-        <v>27000</v>
+        <v>26990</v>
       </c>
       <c r="E86">
-        <v>63991</v>
+        <v>312354</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2043,10 +2043,10 @@
         <v>53</v>
       </c>
       <c r="D87">
-        <v>99990</v>
+        <v>99980</v>
       </c>
       <c r="E87">
-        <v>10462</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2060,10 +2060,10 @@
         <v>54</v>
       </c>
       <c r="D88">
-        <v>115000</v>
+        <v>114800</v>
       </c>
       <c r="E88">
-        <v>666</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2094,10 +2094,10 @@
         <v>53</v>
       </c>
       <c r="D90">
-        <v>44480</v>
+        <v>44000</v>
       </c>
       <c r="E90">
-        <v>2500</v>
+        <v>12773</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2105,33 +2105,33 @@
         <v>34</v>
       </c>
       <c r="B91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D91">
-        <v>38460</v>
+        <v>68380</v>
       </c>
       <c r="E91">
-        <v>3275</v>
+        <v>16088</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B92" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C92" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D92">
-        <v>68380</v>
+        <v>21000</v>
       </c>
       <c r="E92">
-        <v>16088</v>
+        <v>9220</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2139,16 +2139,16 @@
         <v>35</v>
       </c>
       <c r="B93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D93">
-        <v>20990</v>
+        <v>29740</v>
       </c>
       <c r="E93">
-        <v>5921</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2156,33 +2156,33 @@
         <v>35</v>
       </c>
       <c r="B94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D94">
-        <v>29740</v>
+        <v>24390</v>
       </c>
       <c r="E94">
-        <v>10000</v>
+        <v>22649</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B95" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C95" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D95">
-        <v>24390</v>
+        <v>42270</v>
       </c>
       <c r="E95">
-        <v>22649</v>
+        <v>36322</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2190,16 +2190,16 @@
         <v>36</v>
       </c>
       <c r="B96" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D96">
-        <v>42270</v>
+        <v>69690</v>
       </c>
       <c r="E96">
-        <v>40037</v>
+        <v>5329</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2207,33 +2207,33 @@
         <v>36</v>
       </c>
       <c r="B97" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C97" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D97">
-        <v>69690</v>
+        <v>70390</v>
       </c>
       <c r="E97">
-        <v>5329</v>
+        <v>12966</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B98" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C98" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D98">
-        <v>70390</v>
+        <v>47990</v>
       </c>
       <c r="E98">
-        <v>12966</v>
+        <v>84098</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2241,16 +2241,16 @@
         <v>37</v>
       </c>
       <c r="B99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D99">
-        <v>47990</v>
+        <v>87490</v>
       </c>
       <c r="E99">
-        <v>24639</v>
+        <v>25079</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2258,33 +2258,33 @@
         <v>37</v>
       </c>
       <c r="B100" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C100" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D100">
-        <v>87490</v>
+        <v>75000</v>
       </c>
       <c r="E100">
-        <v>25079</v>
+        <v>31293</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B101" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C101" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D101">
-        <v>75000</v>
+        <v>39480</v>
       </c>
       <c r="E101">
-        <v>31293</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2292,16 +2292,16 @@
         <v>38</v>
       </c>
       <c r="B102" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D102">
-        <v>39580</v>
+        <v>46000</v>
       </c>
       <c r="E102">
-        <v>2756</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2309,33 +2309,33 @@
         <v>38</v>
       </c>
       <c r="B103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C103" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D103">
-        <v>46000</v>
+        <v>47330</v>
       </c>
       <c r="E103">
-        <v>3873</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B104" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C104" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D104">
-        <v>47380</v>
+        <v>196.5</v>
       </c>
       <c r="E104">
-        <v>2574</v>
+        <v>6457301</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2343,16 +2343,16 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C105" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D105">
-        <v>197.9</v>
+        <v>231</v>
       </c>
       <c r="E105">
-        <v>2539486</v>
+        <v>790100</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2360,16 +2360,16 @@
         <v>39</v>
       </c>
       <c r="B106" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C106" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D106">
-        <v>298.9</v>
+        <v>220</v>
       </c>
       <c r="E106">
-        <v>752229</v>
+        <v>4918864</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2377,50 +2377,50 @@
         <v>39</v>
       </c>
       <c r="B107" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C107" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D107">
-        <v>232.9</v>
+        <v>250</v>
       </c>
       <c r="E107">
-        <v>1973267</v>
+        <v>1255330</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B108" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C108" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D108">
-        <v>220</v>
+        <v>13350</v>
       </c>
       <c r="E108">
-        <v>4918864</v>
+        <v>126961</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B109" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C109" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D109">
-        <v>250</v>
+        <v>21530</v>
       </c>
       <c r="E109">
-        <v>1280500</v>
+        <v>39998</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2428,50 +2428,50 @@
         <v>40</v>
       </c>
       <c r="B110" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C110" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D110">
-        <v>13470</v>
+        <v>18480</v>
       </c>
       <c r="E110">
-        <v>42284</v>
+        <v>105400</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C111" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D111">
-        <v>21570</v>
+        <v>80590</v>
       </c>
       <c r="E111">
-        <v>47998</v>
+        <v>462</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B112" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C112" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D112">
-        <v>18480</v>
+        <v>99900</v>
       </c>
       <c r="E112">
-        <v>105400</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2479,16 +2479,16 @@
         <v>41</v>
       </c>
       <c r="B113" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C113" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D113">
-        <v>80930</v>
+        <v>77300</v>
       </c>
       <c r="E113">
-        <v>3000</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2496,50 +2496,50 @@
         <v>41</v>
       </c>
       <c r="B114" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C114" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D114">
-        <v>99900</v>
+        <v>115000</v>
       </c>
       <c r="E114">
-        <v>3095</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B115" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C115" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D115">
-        <v>77380</v>
+        <v>1820</v>
       </c>
       <c r="E115">
-        <v>2000</v>
+        <v>959714</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B116" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C116" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D116">
-        <v>115000</v>
+        <v>2660</v>
       </c>
       <c r="E116">
-        <v>2945</v>
+        <v>99985</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2547,16 +2547,16 @@
         <v>42</v>
       </c>
       <c r="B117" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C117" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D117">
-        <v>1826</v>
+        <v>2748</v>
       </c>
       <c r="E117">
-        <v>459903</v>
+        <v>110952</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2564,16 +2564,16 @@
         <v>42</v>
       </c>
       <c r="B118" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C118" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D118">
-        <v>2664</v>
+        <v>2388</v>
       </c>
       <c r="E118">
-        <v>400000</v>
+        <v>103369</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2581,50 +2581,50 @@
         <v>42</v>
       </c>
       <c r="B119" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C119" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D119">
-        <v>2748</v>
+        <v>2850</v>
       </c>
       <c r="E119">
-        <v>178802</v>
+        <v>736038</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B120" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C120" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D120">
-        <v>2388</v>
+        <v>28250</v>
       </c>
       <c r="E120">
-        <v>103369</v>
+        <v>244498</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B121" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C121" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D121">
-        <v>2850</v>
+        <v>35990</v>
       </c>
       <c r="E121">
-        <v>736038</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2632,16 +2632,16 @@
         <v>43</v>
       </c>
       <c r="B122" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C122" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D122">
-        <v>28410</v>
+        <v>29010</v>
       </c>
       <c r="E122">
-        <v>14970</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2649,16 +2649,16 @@
         <v>43</v>
       </c>
       <c r="B123" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C123" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D123">
-        <v>35990</v>
+        <v>31980</v>
       </c>
       <c r="E123">
-        <v>5000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2666,50 +2666,50 @@
         <v>43</v>
       </c>
       <c r="B124" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C124" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D124">
-        <v>29010</v>
+        <v>39980</v>
       </c>
       <c r="E124">
-        <v>7200</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B125" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C125" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D125">
-        <v>31970</v>
+        <v>383.5</v>
       </c>
       <c r="E125">
-        <v>3000</v>
+        <v>10655809</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B126" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C126" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D126">
-        <v>39980</v>
+        <v>994.1</v>
       </c>
       <c r="E126">
-        <v>7000</v>
+        <v>475005</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2717,16 +2717,16 @@
         <v>44</v>
       </c>
       <c r="B127" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C127" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D127">
-        <v>388</v>
+        <v>579</v>
       </c>
       <c r="E127">
-        <v>1976423</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2734,50 +2734,50 @@
         <v>44</v>
       </c>
       <c r="B128" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C128" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D128">
-        <v>994.5</v>
+        <v>1000</v>
       </c>
       <c r="E128">
-        <v>991345</v>
+        <v>452469</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B129" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C129" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D129">
-        <v>590</v>
+        <v>2977</v>
       </c>
       <c r="E129">
-        <v>800000</v>
+        <v>57550</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B130" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C130" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D130">
-        <v>1000</v>
+        <v>3949</v>
       </c>
       <c r="E130">
-        <v>452469</v>
+        <v>75195</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2785,16 +2785,16 @@
         <v>45</v>
       </c>
       <c r="B131" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C131" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D131">
-        <v>2988</v>
+        <v>3500</v>
       </c>
       <c r="E131">
-        <v>132440</v>
+        <v>633739</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2802,16 +2802,16 @@
         <v>45</v>
       </c>
       <c r="B132" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C132" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D132">
-        <v>3949</v>
+        <v>4995</v>
       </c>
       <c r="E132">
-        <v>96195</v>
+        <v>40750</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2819,50 +2819,50 @@
         <v>45</v>
       </c>
       <c r="B133" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C133" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D133">
-        <v>3500</v>
+        <v>6284</v>
       </c>
       <c r="E133">
-        <v>646439</v>
+        <v>30273</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B134" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C134" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D134">
-        <v>4995</v>
+        <v>6815</v>
       </c>
       <c r="E134">
-        <v>40750</v>
+        <v>265091</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C135" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D135">
-        <v>6284</v>
+        <v>8347</v>
       </c>
       <c r="E135">
-        <v>30273</v>
+        <v>12450</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2870,16 +2870,16 @@
         <v>46</v>
       </c>
       <c r="B136" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C136" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D136">
-        <v>6832</v>
+        <v>7706</v>
       </c>
       <c r="E136">
-        <v>17617</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2887,50 +2887,50 @@
         <v>46</v>
       </c>
       <c r="B137" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C137" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D137">
-        <v>8347</v>
+        <v>10390</v>
       </c>
       <c r="E137">
-        <v>13502</v>
+        <v>19900</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B138" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C138" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D138">
-        <v>7706</v>
+        <v>1094</v>
       </c>
       <c r="E138">
-        <v>75000</v>
+        <v>81906</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B139" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C139" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D139">
-        <v>10390</v>
+        <v>1578</v>
       </c>
       <c r="E139">
-        <v>19900</v>
+        <v>288322</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2938,16 +2938,16 @@
         <v>47</v>
       </c>
       <c r="B140" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C140" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D140">
-        <v>1095</v>
+        <v>1050</v>
       </c>
       <c r="E140">
-        <v>200000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2955,16 +2955,16 @@
         <v>47</v>
       </c>
       <c r="B141" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C141" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D141">
-        <v>1578</v>
+        <v>1399</v>
       </c>
       <c r="E141">
-        <v>299322</v>
+        <v>315814</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2972,49 +2972,15 @@
         <v>47</v>
       </c>
       <c r="B142" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C142" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D142">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="E142">
-        <v>374458</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" t="s">
-        <v>47</v>
-      </c>
-      <c r="B143" t="s">
-        <v>51</v>
-      </c>
-      <c r="C143" t="s">
-        <v>56</v>
-      </c>
-      <c r="D143">
-        <v>1399</v>
-      </c>
-      <c r="E143">
-        <v>315814</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" t="s">
-        <v>47</v>
-      </c>
-      <c r="B144" t="s">
-        <v>52</v>
-      </c>
-      <c r="C144" t="s">
-        <v>57</v>
-      </c>
-      <c r="D144">
-        <v>2000</v>
-      </c>
-      <c r="E144">
         <v>100000</v>
       </c>
     </row>

--- a/data/outputs/Market_Sell_Data.xlsx
+++ b/data/outputs/Market_Sell_Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="66">
   <si>
     <t>Item</t>
   </si>
@@ -161,40 +161,46 @@
     <t>Fullerides</t>
   </si>
   <si>
-    <t>The Forge</t>
-  </si>
-  <si>
-    <t>Sinq Laison</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>Metropolis</t>
-  </si>
-  <si>
-    <t>Heimatar</t>
-  </si>
-  <si>
-    <t>Jita IV - Moon 4 - Caldari Navy Assembly Plant</t>
-  </si>
-  <si>
-    <t>Dodixie IX - Moon 20 - Federation Navy Assembly Plant</t>
-  </si>
-  <si>
-    <t>Amarr VIII (Oris) - Emperor Family Academy</t>
-  </si>
-  <si>
-    <t>Hek VIII - Moon 12 - Boundless Creation Factory</t>
-  </si>
-  <si>
-    <t>Rens VI - Moon 8 - Brutor Tribe Treasury</t>
-  </si>
-  <si>
-    <t>Dammalin VI - CBD Corporation Storage</t>
-  </si>
-  <si>
-    <t>Misaba V - Moon 3 - Zoar and Sons Factory</t>
+    <t>['The Forge']</t>
+  </si>
+  <si>
+    <t>['Sinq Laison']</t>
+  </si>
+  <si>
+    <t>['Domain']</t>
+  </si>
+  <si>
+    <t>['Metropolis']</t>
+  </si>
+  <si>
+    <t>['Heimatar']</t>
+  </si>
+  <si>
+    <t>['Jita IV - Moon 4 - Caldari Navy Assembly Plant']</t>
+  </si>
+  <si>
+    <t>['Dodixie IX - Moon 20 - Federation Navy Assembly Plant']</t>
+  </si>
+  <si>
+    <t>['Amarr VIII (Oris) - Emperor Family Academy']</t>
+  </si>
+  <si>
+    <t>['Hek VIII - Moon 12 - Boundless Creation Factory']</t>
+  </si>
+  <si>
+    <t>['Rens VI - Moon 8 - Brutor Tribe Treasury']</t>
+  </si>
+  <si>
+    <t>['Hadaugago II - Moon 1 - Republic Military School']</t>
+  </si>
+  <si>
+    <t>['Odebeinn V - Moon 5 - Kaalakiota Corporation Factory']</t>
+  </si>
+  <si>
+    <t>['Misaba V - Moon 3 - Zoar and Sons Factory']</t>
+  </si>
+  <si>
+    <t>['Josekorn VIII - CreoDron Factory']</t>
   </si>
   <si>
     <t>player_name</t>
@@ -206,7 +212,7 @@
     <t>Certh Finley</t>
   </si>
   <si>
-    <t>06/26/2023, 13:41:20</t>
+    <t>08/03/2023, 11:49:20</t>
   </si>
 </sst>
 </file>
@@ -564,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,10 +604,10 @@
         <v>53</v>
       </c>
       <c r="D2">
-        <v>133400</v>
+        <v>122900</v>
       </c>
       <c r="E2">
-        <v>4969</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -615,10 +621,10 @@
         <v>54</v>
       </c>
       <c r="D3">
-        <v>137900</v>
+        <v>147600</v>
       </c>
       <c r="E3">
-        <v>800</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -632,10 +638,10 @@
         <v>55</v>
       </c>
       <c r="D4">
-        <v>142500</v>
+        <v>244300</v>
       </c>
       <c r="E4">
-        <v>6495</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -649,10 +655,10 @@
         <v>56</v>
       </c>
       <c r="D5">
-        <v>149600</v>
+        <v>149000</v>
       </c>
       <c r="E5">
-        <v>422</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -666,7 +672,7 @@
         <v>57</v>
       </c>
       <c r="D6">
-        <v>400000</v>
+        <v>189000</v>
       </c>
       <c r="E6">
         <v>500</v>
@@ -683,10 +689,10 @@
         <v>53</v>
       </c>
       <c r="D7">
-        <v>39850</v>
+        <v>34300</v>
       </c>
       <c r="E7">
-        <v>54546</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -703,7 +709,7 @@
         <v>41870</v>
       </c>
       <c r="E8">
-        <v>9392</v>
+        <v>8492</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -717,10 +723,10 @@
         <v>53</v>
       </c>
       <c r="D9">
-        <v>34480</v>
+        <v>47880</v>
       </c>
       <c r="E9">
-        <v>9571</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -728,33 +734,33 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10">
-        <v>39990</v>
+        <v>90660</v>
       </c>
       <c r="E10">
-        <v>3631</v>
+        <v>9608</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11">
-        <v>41970</v>
+        <v>55290</v>
       </c>
       <c r="E11">
-        <v>4644</v>
+        <v>25367</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -762,16 +768,16 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D12">
-        <v>58740</v>
+        <v>98790</v>
       </c>
       <c r="E12">
-        <v>24689</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -785,10 +791,10 @@
         <v>53</v>
       </c>
       <c r="D13">
-        <v>26640</v>
+        <v>27040</v>
       </c>
       <c r="E13">
-        <v>6680</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -810,19 +816,19 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15">
-        <v>33930</v>
+        <v>62570</v>
       </c>
       <c r="E15">
-        <v>5443</v>
+        <v>10739</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -830,16 +836,16 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D16">
-        <v>65310</v>
+        <v>61660</v>
       </c>
       <c r="E16">
-        <v>8000</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -847,33 +853,33 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17">
-        <v>97700</v>
+        <v>74870</v>
       </c>
       <c r="E17">
-        <v>5555</v>
+        <v>7877</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18">
-        <v>74890</v>
+        <v>9980</v>
       </c>
       <c r="E18">
-        <v>5340</v>
+        <v>86102</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -881,16 +887,16 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19">
-        <v>11490</v>
+        <v>21700</v>
       </c>
       <c r="E19">
-        <v>21250</v>
+        <v>22395</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -898,16 +904,16 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20">
-        <v>27000</v>
+        <v>12300</v>
       </c>
       <c r="E20">
-        <v>25650</v>
+        <v>120580</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -915,33 +921,33 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21">
-        <v>23320</v>
+        <v>12500</v>
       </c>
       <c r="E21">
-        <v>74245</v>
+        <v>29400</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D22">
-        <v>18000</v>
+        <v>154.5</v>
       </c>
       <c r="E22">
-        <v>20168</v>
+        <v>13016125</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -949,16 +955,16 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D23">
-        <v>218.5</v>
+        <v>214</v>
       </c>
       <c r="E23">
-        <v>4233973</v>
+        <v>1899995</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -966,16 +972,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D24">
-        <v>241.4</v>
+        <v>192.6</v>
       </c>
       <c r="E24">
-        <v>3432650</v>
+        <v>1687061</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -983,16 +989,16 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D25">
-        <v>249</v>
+        <v>225.4</v>
       </c>
       <c r="E25">
-        <v>3615001</v>
+        <v>1960000</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1000,33 +1006,33 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D26">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="E26">
-        <v>2950000</v>
+        <v>1950000</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D27">
-        <v>296.5</v>
+        <v>20010</v>
       </c>
       <c r="E27">
-        <v>3638342</v>
+        <v>38916</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1034,50 +1040,50 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D28">
-        <v>17100</v>
+        <v>37170</v>
       </c>
       <c r="E28">
-        <v>214722</v>
+        <v>49995</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29">
-        <v>38590</v>
+        <v>125700</v>
       </c>
       <c r="E29">
-        <v>50000</v>
+        <v>550</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30">
-        <v>22670</v>
+        <v>133500</v>
       </c>
       <c r="E30">
-        <v>59100</v>
+        <v>515</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1085,50 +1091,50 @@
         <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D31">
-        <v>179600</v>
+        <v>150000</v>
       </c>
       <c r="E31">
-        <v>9782</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32">
-        <v>131900</v>
+        <v>45900</v>
       </c>
       <c r="E32">
-        <v>231</v>
+        <v>12311</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33">
-        <v>104500</v>
+        <v>42890</v>
       </c>
       <c r="E33">
-        <v>2164</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1136,50 +1142,50 @@
         <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D34">
-        <v>42450</v>
+        <v>50730</v>
       </c>
       <c r="E34">
-        <v>19999</v>
+        <v>7471</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35">
-        <v>55000</v>
+        <v>37340</v>
       </c>
       <c r="E35">
-        <v>2320</v>
+        <v>6959</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D36">
-        <v>51790</v>
+        <v>37880</v>
       </c>
       <c r="E36">
-        <v>2634</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1187,50 +1193,50 @@
         <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D37">
-        <v>37220</v>
+        <v>37500</v>
       </c>
       <c r="E37">
-        <v>70923</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38">
-        <v>38160</v>
+        <v>22870</v>
       </c>
       <c r="E38">
-        <v>4603</v>
+        <v>9732</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39">
-        <v>38950</v>
+        <v>37750</v>
       </c>
       <c r="E39">
-        <v>6679</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1238,38 +1244,38 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D40">
-        <v>19720</v>
+        <v>29600</v>
       </c>
       <c r="E40">
-        <v>101971</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41">
-        <v>37760</v>
+        <v>47000</v>
       </c>
       <c r="E41">
-        <v>4932</v>
+        <v>14278</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
         <v>50</v>
@@ -1278,32 +1284,32 @@
         <v>55</v>
       </c>
       <c r="D42">
-        <v>32000</v>
+        <v>93000</v>
       </c>
       <c r="E42">
-        <v>7814</v>
+        <v>9505</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43">
-        <v>58700</v>
+        <v>54750</v>
       </c>
       <c r="E43">
-        <v>5000</v>
+        <v>68638</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s">
         <v>50</v>
@@ -1312,15 +1318,15 @@
         <v>55</v>
       </c>
       <c r="D44">
-        <v>47940</v>
+        <v>84990</v>
       </c>
       <c r="E44">
-        <v>10478</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
         <v>48</v>
@@ -1329,27 +1335,27 @@
         <v>53</v>
       </c>
       <c r="D45">
-        <v>55670</v>
+        <v>9999</v>
       </c>
       <c r="E45">
-        <v>34609</v>
+        <v>64523</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46">
-        <v>87870</v>
+        <v>17490</v>
       </c>
       <c r="E46">
-        <v>29960</v>
+        <v>25210</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1357,16 +1363,16 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D47">
-        <v>11430</v>
+        <v>23950</v>
       </c>
       <c r="E47">
-        <v>21725</v>
+        <v>30100</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1374,33 +1380,33 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D48">
-        <v>25950</v>
+        <v>11000</v>
       </c>
       <c r="E48">
-        <v>22000</v>
+        <v>27780</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D49">
-        <v>26870</v>
+        <v>147.4</v>
       </c>
       <c r="E49">
-        <v>163730</v>
+        <v>1470000</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1408,16 +1414,16 @@
         <v>21</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D50">
-        <v>169.5</v>
+        <v>187.9</v>
       </c>
       <c r="E50">
-        <v>3683907</v>
+        <v>998995</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1425,16 +1431,16 @@
         <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D51">
-        <v>213.6</v>
+        <v>263</v>
       </c>
       <c r="E51">
-        <v>1660805</v>
+        <v>921350</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1442,16 +1448,16 @@
         <v>21</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D52">
-        <v>209.8</v>
+        <v>221.2</v>
       </c>
       <c r="E52">
-        <v>2000000</v>
+        <v>3745356</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1459,33 +1465,33 @@
         <v>21</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D53">
-        <v>222.4</v>
+        <v>227.9</v>
       </c>
       <c r="E53">
-        <v>4990000</v>
+        <v>4055456</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D54">
-        <v>230.1</v>
+        <v>16290</v>
       </c>
       <c r="E54">
-        <v>997750</v>
+        <v>34332</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1493,33 +1499,33 @@
         <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D55">
-        <v>16550</v>
+        <v>38940</v>
       </c>
       <c r="E55">
-        <v>197452</v>
+        <v>38716</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D56">
-        <v>24970</v>
+        <v>41900</v>
       </c>
       <c r="E56">
-        <v>54000</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1527,16 +1533,16 @@
         <v>23</v>
       </c>
       <c r="B57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D57">
-        <v>40430</v>
+        <v>50000</v>
       </c>
       <c r="E57">
-        <v>5534</v>
+        <v>7127</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1544,38 +1550,38 @@
         <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D58">
-        <v>50000</v>
+        <v>48170</v>
       </c>
       <c r="E58">
-        <v>7639</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D59">
-        <v>48380</v>
+        <v>43910</v>
       </c>
       <c r="E59">
-        <v>4665</v>
+        <v>14182</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
         <v>48</v>
@@ -1584,27 +1590,27 @@
         <v>53</v>
       </c>
       <c r="D60">
-        <v>45000</v>
+        <v>7598</v>
       </c>
       <c r="E60">
-        <v>20000</v>
+        <v>34011</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C61" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D61">
-        <v>59040</v>
+        <v>19870</v>
       </c>
       <c r="E61">
-        <v>30000</v>
+        <v>31997</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1612,16 +1618,16 @@
         <v>25</v>
       </c>
       <c r="B62" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C62" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D62">
-        <v>10450</v>
+        <v>26000</v>
       </c>
       <c r="E62">
-        <v>25000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1629,89 +1635,89 @@
         <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C63" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D63">
-        <v>19200</v>
+        <v>13800</v>
       </c>
       <c r="E63">
-        <v>61145</v>
+        <v>49840</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C64" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D64">
-        <v>17960</v>
+        <v>23920</v>
       </c>
       <c r="E64">
-        <v>88271</v>
+        <v>5023</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C65" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D65">
-        <v>19180</v>
+        <v>41150</v>
       </c>
       <c r="E65">
-        <v>20000</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D66">
-        <v>19280</v>
+        <v>38970</v>
       </c>
       <c r="E66">
-        <v>9004</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C67" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D67">
-        <v>20000</v>
+        <v>47350</v>
       </c>
       <c r="E67">
-        <v>5760</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
         <v>48</v>
@@ -1720,15 +1726,15 @@
         <v>53</v>
       </c>
       <c r="D68">
-        <v>38780</v>
+        <v>99780</v>
       </c>
       <c r="E68">
-        <v>22365</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
         <v>49</v>
@@ -1737,32 +1743,32 @@
         <v>54</v>
       </c>
       <c r="D69">
-        <v>41960</v>
+        <v>94780</v>
       </c>
       <c r="E69">
-        <v>1900</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C70" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D70">
-        <v>49240</v>
+        <v>95000</v>
       </c>
       <c r="E70">
-        <v>6917</v>
+        <v>494</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B71" t="s">
         <v>48</v>
@@ -1771,78 +1777,78 @@
         <v>53</v>
       </c>
       <c r="D71">
-        <v>98910</v>
+        <v>37320</v>
       </c>
       <c r="E71">
-        <v>6127</v>
+        <v>12550</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D72">
-        <v>94800</v>
+        <v>114.3</v>
       </c>
       <c r="E72">
-        <v>2364</v>
+        <v>2171271</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B73" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C73" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D73">
-        <v>95000</v>
+        <v>129.2</v>
       </c>
       <c r="E73">
-        <v>1624</v>
+        <v>995000</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C74" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D74">
-        <v>34470</v>
+        <v>139</v>
       </c>
       <c r="E74">
-        <v>14243</v>
+        <v>4512628</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C75" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D75">
-        <v>45830</v>
+        <v>100</v>
       </c>
       <c r="E75">
-        <v>6890</v>
+        <v>760000</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1850,174 +1856,174 @@
         <v>30</v>
       </c>
       <c r="B76" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C76" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D76">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c r="E76">
-        <v>11520063</v>
+        <v>4132632</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D77">
-        <v>199.2</v>
+        <v>13300</v>
       </c>
       <c r="E77">
-        <v>872304</v>
+        <v>194191</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D78">
-        <v>172</v>
+        <v>24800</v>
       </c>
       <c r="E78">
-        <v>16118516</v>
+        <v>88760</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D79">
-        <v>180</v>
+        <v>14330</v>
       </c>
       <c r="E79">
-        <v>3000000</v>
+        <v>63675</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B80" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C80" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D80">
-        <v>270</v>
+        <v>9461</v>
       </c>
       <c r="E80">
-        <v>1105906</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D81">
-        <v>12750</v>
+        <v>13860</v>
       </c>
       <c r="E81">
-        <v>151622</v>
+        <v>20600</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B82" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C82" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D82">
-        <v>16860</v>
+        <v>14000</v>
       </c>
       <c r="E82">
-        <v>30000</v>
+        <v>86936</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B83" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D83">
-        <v>14850</v>
+        <v>12500</v>
       </c>
       <c r="E83">
-        <v>67877</v>
+        <v>27410</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B84" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C84" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D84">
-        <v>20000</v>
+        <v>124900</v>
       </c>
       <c r="E84">
-        <v>52900</v>
+        <v>7330</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D85">
-        <v>11440</v>
+        <v>125000</v>
       </c>
       <c r="E85">
-        <v>47002</v>
+        <v>945</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B86" t="s">
         <v>50</v>
@@ -2026,10 +2032,10 @@
         <v>55</v>
       </c>
       <c r="D86">
-        <v>26990</v>
+        <v>170000</v>
       </c>
       <c r="E86">
-        <v>312354</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2037,16 +2043,16 @@
         <v>33</v>
       </c>
       <c r="B87" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C87" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D87">
-        <v>99980</v>
+        <v>589800</v>
       </c>
       <c r="E87">
-        <v>2136</v>
+        <v>501</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2054,33 +2060,33 @@
         <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C88" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D88">
-        <v>114800</v>
+        <v>122400</v>
       </c>
       <c r="E88">
-        <v>2000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B89" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C89" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D89">
-        <v>108100</v>
+        <v>43340</v>
       </c>
       <c r="E89">
-        <v>499</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2088,33 +2094,33 @@
         <v>34</v>
       </c>
       <c r="B90" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C90" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D90">
-        <v>44000</v>
+        <v>48930</v>
       </c>
       <c r="E90">
-        <v>12773</v>
+        <v>16088</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B91" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C91" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D91">
-        <v>68380</v>
+        <v>25390</v>
       </c>
       <c r="E91">
-        <v>16088</v>
+        <v>8238</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2122,50 +2128,50 @@
         <v>35</v>
       </c>
       <c r="B92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C92" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D92">
-        <v>21000</v>
+        <v>29740</v>
       </c>
       <c r="E92">
-        <v>9220</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D93">
-        <v>29740</v>
+        <v>53740</v>
       </c>
       <c r="E93">
-        <v>10000</v>
+        <v>8906</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D94">
-        <v>24390</v>
+        <v>69670</v>
       </c>
       <c r="E94">
-        <v>22649</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2173,50 +2179,50 @@
         <v>36</v>
       </c>
       <c r="B95" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C95" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D95">
-        <v>42270</v>
+        <v>129700</v>
       </c>
       <c r="E95">
-        <v>36322</v>
+        <v>9824</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D96">
-        <v>69690</v>
+        <v>52620</v>
       </c>
       <c r="E96">
-        <v>5329</v>
+        <v>48100</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B97" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C97" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D97">
-        <v>70390</v>
+        <v>87490</v>
       </c>
       <c r="E97">
-        <v>12966</v>
+        <v>20607</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2224,50 +2230,50 @@
         <v>37</v>
       </c>
       <c r="B98" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C98" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D98">
-        <v>47990</v>
+        <v>68650</v>
       </c>
       <c r="E98">
-        <v>84098</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C99" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D99">
-        <v>87490</v>
+        <v>44860</v>
       </c>
       <c r="E99">
-        <v>25079</v>
+        <v>6964</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B100" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C100" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D100">
-        <v>75000</v>
+        <v>46710</v>
       </c>
       <c r="E100">
-        <v>31293</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2275,50 +2281,50 @@
         <v>38</v>
       </c>
       <c r="B101" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C101" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D101">
-        <v>39480</v>
+        <v>69140</v>
       </c>
       <c r="E101">
-        <v>2854</v>
+        <v>9472</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C102" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D102">
-        <v>46000</v>
+        <v>139</v>
       </c>
       <c r="E102">
-        <v>3723</v>
+        <v>2400000</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B103" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C103" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D103">
-        <v>47330</v>
+        <v>199.9</v>
       </c>
       <c r="E103">
-        <v>2574</v>
+        <v>794949</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2326,16 +2332,16 @@
         <v>39</v>
       </c>
       <c r="B104" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C104" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D104">
-        <v>196.5</v>
+        <v>148.1</v>
       </c>
       <c r="E104">
-        <v>6457301</v>
+        <v>1813836</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2343,16 +2349,16 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D105">
-        <v>231</v>
+        <v>214.3</v>
       </c>
       <c r="E105">
-        <v>790100</v>
+        <v>1684000</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2360,33 +2366,33 @@
         <v>39</v>
       </c>
       <c r="B106" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D106">
-        <v>220</v>
+        <v>250.6</v>
       </c>
       <c r="E106">
-        <v>4918864</v>
+        <v>1722536</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B107" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C107" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D107">
-        <v>250</v>
+        <v>15370</v>
       </c>
       <c r="E107">
-        <v>1255330</v>
+        <v>76538</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2394,16 +2400,16 @@
         <v>40</v>
       </c>
       <c r="B108" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D108">
-        <v>13350</v>
+        <v>20250</v>
       </c>
       <c r="E108">
-        <v>126961</v>
+        <v>66500</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2411,33 +2417,33 @@
         <v>40</v>
       </c>
       <c r="B109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D109">
-        <v>21530</v>
+        <v>19530</v>
       </c>
       <c r="E109">
-        <v>39998</v>
+        <v>33893</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B110" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C110" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D110">
-        <v>18480</v>
+        <v>56800</v>
       </c>
       <c r="E110">
-        <v>105400</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2445,16 +2451,16 @@
         <v>41</v>
       </c>
       <c r="B111" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C111" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D111">
-        <v>80590</v>
+        <v>73970</v>
       </c>
       <c r="E111">
-        <v>462</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2462,16 +2468,16 @@
         <v>41</v>
       </c>
       <c r="B112" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C112" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D112">
-        <v>99900</v>
+        <v>74400</v>
       </c>
       <c r="E112">
-        <v>2895</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2479,16 +2485,16 @@
         <v>41</v>
       </c>
       <c r="B113" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D113">
-        <v>77300</v>
+        <v>79970</v>
       </c>
       <c r="E113">
-        <v>1168</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2502,10 +2508,10 @@
         <v>57</v>
       </c>
       <c r="D114">
-        <v>115000</v>
+        <v>109700</v>
       </c>
       <c r="E114">
-        <v>2925</v>
+        <v>500</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2519,10 +2525,10 @@
         <v>53</v>
       </c>
       <c r="D115">
-        <v>1820</v>
+        <v>1456</v>
       </c>
       <c r="E115">
-        <v>959714</v>
+        <v>51397</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2536,10 +2542,10 @@
         <v>54</v>
       </c>
       <c r="D116">
-        <v>2660</v>
+        <v>1989</v>
       </c>
       <c r="E116">
-        <v>99985</v>
+        <v>230379</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2553,10 +2559,10 @@
         <v>55</v>
       </c>
       <c r="D117">
-        <v>2748</v>
+        <v>1643</v>
       </c>
       <c r="E117">
-        <v>110952</v>
+        <v>102228</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2570,10 +2576,10 @@
         <v>56</v>
       </c>
       <c r="D118">
-        <v>2388</v>
+        <v>2099</v>
       </c>
       <c r="E118">
-        <v>103369</v>
+        <v>151744</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2587,10 +2593,10 @@
         <v>57</v>
       </c>
       <c r="D119">
-        <v>2850</v>
+        <v>1600</v>
       </c>
       <c r="E119">
-        <v>736038</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2604,10 +2610,10 @@
         <v>53</v>
       </c>
       <c r="D120">
-        <v>28250</v>
+        <v>34600</v>
       </c>
       <c r="E120">
-        <v>244498</v>
+        <v>91400</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2621,10 +2627,10 @@
         <v>54</v>
       </c>
       <c r="D121">
-        <v>35990</v>
+        <v>33640</v>
       </c>
       <c r="E121">
-        <v>3800</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2635,13 +2641,13 @@
         <v>50</v>
       </c>
       <c r="C122" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D122">
-        <v>29010</v>
+        <v>38880</v>
       </c>
       <c r="E122">
-        <v>7200</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2655,10 +2661,10 @@
         <v>56</v>
       </c>
       <c r="D123">
-        <v>31980</v>
+        <v>37980</v>
       </c>
       <c r="E123">
-        <v>8500</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2672,10 +2678,10 @@
         <v>57</v>
       </c>
       <c r="D124">
-        <v>39980</v>
+        <v>39970</v>
       </c>
       <c r="E124">
-        <v>7000</v>
+        <v>12100</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2689,10 +2695,10 @@
         <v>53</v>
       </c>
       <c r="D125">
-        <v>383.5</v>
+        <v>286</v>
       </c>
       <c r="E125">
-        <v>10655809</v>
+        <v>9052591</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2706,10 +2712,10 @@
         <v>54</v>
       </c>
       <c r="D126">
-        <v>994.1</v>
+        <v>430.8</v>
       </c>
       <c r="E126">
-        <v>475005</v>
+        <v>931295</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2723,10 +2729,10 @@
         <v>55</v>
       </c>
       <c r="D127">
-        <v>579</v>
+        <v>425</v>
       </c>
       <c r="E127">
-        <v>240000</v>
+        <v>348000</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2734,33 +2740,33 @@
         <v>44</v>
       </c>
       <c r="B128" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C128" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D128">
-        <v>1000</v>
+        <v>478.8</v>
       </c>
       <c r="E128">
-        <v>452469</v>
+        <v>893959</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B129" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C129" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D129">
-        <v>2977</v>
+        <v>799</v>
       </c>
       <c r="E129">
-        <v>57550</v>
+        <v>291012</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2768,16 +2774,16 @@
         <v>45</v>
       </c>
       <c r="B130" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C130" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D130">
-        <v>3949</v>
+        <v>4015</v>
       </c>
       <c r="E130">
-        <v>75195</v>
+        <v>33488</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2785,16 +2791,16 @@
         <v>45</v>
       </c>
       <c r="B131" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C131" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D131">
-        <v>3500</v>
+        <v>4499</v>
       </c>
       <c r="E131">
-        <v>633739</v>
+        <v>64217</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2802,16 +2808,16 @@
         <v>45</v>
       </c>
       <c r="B132" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C132" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D132">
-        <v>4995</v>
+        <v>4355</v>
       </c>
       <c r="E132">
-        <v>40750</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2819,33 +2825,33 @@
         <v>45</v>
       </c>
       <c r="B133" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C133" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D133">
-        <v>6284</v>
+        <v>4985</v>
       </c>
       <c r="E133">
-        <v>30273</v>
+        <v>98394</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B134" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C134" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D134">
-        <v>6815</v>
+        <v>4999</v>
       </c>
       <c r="E134">
-        <v>265091</v>
+        <v>79185</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2853,16 +2859,16 @@
         <v>46</v>
       </c>
       <c r="B135" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C135" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D135">
-        <v>8347</v>
+        <v>7433</v>
       </c>
       <c r="E135">
-        <v>12450</v>
+        <v>29988</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2870,16 +2876,16 @@
         <v>46</v>
       </c>
       <c r="B136" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C136" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D136">
-        <v>7706</v>
+        <v>8487</v>
       </c>
       <c r="E136">
-        <v>75000</v>
+        <v>19580</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2887,50 +2893,50 @@
         <v>46</v>
       </c>
       <c r="B137" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C137" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D137">
-        <v>10390</v>
+        <v>7706</v>
       </c>
       <c r="E137">
-        <v>19900</v>
+        <v>63799</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B138" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C138" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D138">
-        <v>1094</v>
+        <v>8297</v>
       </c>
       <c r="E138">
-        <v>81906</v>
+        <v>8440</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B139" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C139" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D139">
-        <v>1578</v>
+        <v>12980</v>
       </c>
       <c r="E139">
-        <v>288322</v>
+        <v>48703</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2938,16 +2944,16 @@
         <v>47</v>
       </c>
       <c r="B140" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C140" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D140">
-        <v>1050</v>
+        <v>649.9</v>
       </c>
       <c r="E140">
-        <v>60000</v>
+        <v>1385736</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2955,16 +2961,16 @@
         <v>47</v>
       </c>
       <c r="B141" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C141" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D141">
-        <v>1399</v>
+        <v>685</v>
       </c>
       <c r="E141">
-        <v>315814</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2972,16 +2978,50 @@
         <v>47</v>
       </c>
       <c r="B142" t="s">
+        <v>50</v>
+      </c>
+      <c r="C142" t="s">
+        <v>55</v>
+      </c>
+      <c r="D142">
+        <v>760</v>
+      </c>
+      <c r="E142">
+        <v>47319</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>47</v>
+      </c>
+      <c r="B143" t="s">
+        <v>51</v>
+      </c>
+      <c r="C143" t="s">
+        <v>61</v>
+      </c>
+      <c r="D143">
+        <v>1120</v>
+      </c>
+      <c r="E143">
+        <v>600529</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>47</v>
+      </c>
+      <c r="B144" t="s">
         <v>52</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C144" t="s">
         <v>57</v>
       </c>
-      <c r="D142">
-        <v>2000</v>
-      </c>
-      <c r="E142">
-        <v>100000</v>
+      <c r="D144">
+        <v>1399</v>
+      </c>
+      <c r="E144">
+        <v>108892</v>
       </c>
     </row>
   </sheetData>
@@ -2999,18 +3039,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
